--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24424"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VsCode\Projeler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8137E6-31E7-45D6-88EA-8EE627E4D038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E110F2EC-8EE9-42C3-AD09-81B6B92B466D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="1788" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,10 +36,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>Names</t>
+  </si>
+  <si>
     <t>Numbers</t>
-  </si>
-  <si>
-    <t>Names</t>
   </si>
   <si>
     <t>John</t>
@@ -49,13 +58,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,52 +379,52 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>8886664798</v>
+        <v>905968587799</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>4448885632</v>
+      <c r="B3" s="1">
+        <v>906558798487</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>3338965432</v>
+      <c r="B4" s="1">
+        <v>903658956465</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>7776541238</v>
+      <c r="B5" s="1">
+        <v>902456359585</v>
       </c>
     </row>
   </sheetData>

--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VsCode\Projeler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E110F2EC-8EE9-42C3-AD09-81B6B92B466D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA5653BF-F1AB-4C18-8650-6F5CAA2409D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="1788" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Names</t>
   </si>
@@ -42,35 +42,44 @@
     <t>Numbers</t>
   </si>
   <si>
+    <t>Messages</t>
+  </si>
+  <si>
     <t>John</t>
   </si>
   <si>
+    <t>Hi John</t>
+  </si>
+  <si>
     <t>Kamil</t>
   </si>
   <si>
+    <t>Hi Kamil</t>
+  </si>
+  <si>
     <t>Mert</t>
   </si>
   <si>
+    <t>Hi Mert</t>
+  </si>
+  <si>
     <t>Michael</t>
+  </si>
+  <si>
+    <t>Hi Michael</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,9 +102,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,55 +384,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>905968587799</v>
+        <v>909999999999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>906558798487</v>
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>908888888888</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>903658956465</v>
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>907777777777</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>902456359585</v>
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>906666666666</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
